--- a/data/historico_conectividad.xlsx
+++ b/data/historico_conectividad.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2308,6 +2308,135 @@
         <v>5.51</v>
       </c>
       <c r="M43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Telemetría</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5902</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3459</v>
+      </c>
+      <c r="E44" t="n">
+        <v>590</v>
+      </c>
+      <c r="F44" t="n">
+        <v>178</v>
+      </c>
+      <c r="G44" t="n">
+        <v>673</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1002</v>
+      </c>
+      <c r="I44" t="n">
+        <v>58.61</v>
+      </c>
+      <c r="J44" t="n">
+        <v>10</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="L44" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="M44" t="n">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>GPS (según REGLA)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5302</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4688</v>
+      </c>
+      <c r="E45" t="n">
+        <v>344</v>
+      </c>
+      <c r="F45" t="n">
+        <v>88</v>
+      </c>
+      <c r="G45" t="n">
+        <v>176</v>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+      <c r="I45" t="n">
+        <v>88.42</v>
+      </c>
+      <c r="J45" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>GPS (todas con gps_timestamp)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>11198</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9476</v>
+      </c>
+      <c r="E46" t="n">
+        <v>862</v>
+      </c>
+      <c r="F46" t="n">
+        <v>279</v>
+      </c>
+      <c r="G46" t="n">
+        <v>581</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="J46" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="L46" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="M46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2399,7 +2528,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45985</v>
+        <v>45992</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2407,42 +2536,42 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5894</v>
+        <v>5902</v>
       </c>
       <c r="D2" t="n">
-        <v>3413</v>
+        <v>3459</v>
       </c>
       <c r="E2" t="n">
-        <v>645</v>
+        <v>590</v>
       </c>
       <c r="F2" t="n">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="G2" t="n">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="H2" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I2" t="n">
-        <v>57.91</v>
+        <v>58.61</v>
       </c>
       <c r="J2" t="n">
-        <v>10.94</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>2.65</v>
+        <v>3.02</v>
       </c>
       <c r="L2" t="n">
-        <v>11.54</v>
+        <v>11.4</v>
       </c>
       <c r="M2" t="n">
-        <v>16.97</v>
+        <v>16.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45985</v>
+        <v>45992</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -2450,34 +2579,34 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5301</v>
+        <v>5302</v>
       </c>
       <c r="D3" t="n">
-        <v>4606</v>
+        <v>4688</v>
       </c>
       <c r="E3" t="n">
-        <v>412</v>
+        <v>344</v>
       </c>
       <c r="F3" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G3" t="n">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="H3" t="n">
         <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>86.89</v>
+        <v>88.42</v>
       </c>
       <c r="J3" t="n">
-        <v>7.77</v>
+        <v>6.49</v>
       </c>
       <c r="K3" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="L3" t="n">
-        <v>3.49</v>
+        <v>3.32</v>
       </c>
       <c r="M3" t="n">
         <v>0.11</v>
@@ -2485,7 +2614,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45985</v>
+        <v>45992</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -2493,34 +2622,34 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11189</v>
+        <v>11198</v>
       </c>
       <c r="D4" t="n">
-        <v>9362</v>
+        <v>9476</v>
       </c>
       <c r="E4" t="n">
-        <v>978</v>
+        <v>862</v>
       </c>
       <c r="F4" t="n">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="G4" t="n">
-        <v>617</v>
+        <v>581</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>83.67</v>
+        <v>84.62</v>
       </c>
       <c r="J4" t="n">
-        <v>8.74</v>
+        <v>7.7</v>
       </c>
       <c r="K4" t="n">
-        <v>2.07</v>
+        <v>2.49</v>
       </c>
       <c r="L4" t="n">
-        <v>5.51</v>
+        <v>5.19</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>

--- a/data/historico_conectividad.xlsx
+++ b/data/historico_conectividad.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2437,6 +2437,135 @@
         <v>5.19</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45993</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Telemetría</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5903</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3409</v>
+      </c>
+      <c r="E47" t="n">
+        <v>622</v>
+      </c>
+      <c r="F47" t="n">
+        <v>191</v>
+      </c>
+      <c r="G47" t="n">
+        <v>679</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1002</v>
+      </c>
+      <c r="I47" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="J47" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L47" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M47" t="n">
+        <v>16.97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45993</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>GPS (según REGLA)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5302</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4643</v>
+      </c>
+      <c r="E48" t="n">
+        <v>377</v>
+      </c>
+      <c r="F48" t="n">
+        <v>100</v>
+      </c>
+      <c r="G48" t="n">
+        <v>176</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+      <c r="I48" t="n">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="J48" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45993</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>GPS (todas con gps_timestamp)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>11199</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9377</v>
+      </c>
+      <c r="E49" t="n">
+        <v>936</v>
+      </c>
+      <c r="F49" t="n">
+        <v>301</v>
+      </c>
+      <c r="G49" t="n">
+        <v>585</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>83.73</v>
+      </c>
+      <c r="J49" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="L49" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="M49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2528,7 +2657,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2536,42 +2665,42 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5902</v>
+        <v>5903</v>
       </c>
       <c r="D2" t="n">
-        <v>3459</v>
+        <v>3409</v>
       </c>
       <c r="E2" t="n">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="F2" t="n">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="G2" t="n">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="H2" t="n">
         <v>1002</v>
       </c>
       <c r="I2" t="n">
-        <v>58.61</v>
+        <v>57.75</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>10.54</v>
       </c>
       <c r="K2" t="n">
-        <v>3.02</v>
+        <v>3.24</v>
       </c>
       <c r="L2" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="M2" t="n">
-        <v>16.98</v>
+        <v>16.97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -2582,13 +2711,13 @@
         <v>5302</v>
       </c>
       <c r="D3" t="n">
-        <v>4688</v>
+        <v>4643</v>
       </c>
       <c r="E3" t="n">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="F3" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
         <v>176</v>
@@ -2597,13 +2726,13 @@
         <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>88.42</v>
+        <v>87.56999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>6.49</v>
+        <v>7.11</v>
       </c>
       <c r="K3" t="n">
-        <v>1.66</v>
+        <v>1.89</v>
       </c>
       <c r="L3" t="n">
         <v>3.32</v>
@@ -2614,7 +2743,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -2622,34 +2751,34 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11198</v>
+        <v>11199</v>
       </c>
       <c r="D4" t="n">
-        <v>9476</v>
+        <v>9377</v>
       </c>
       <c r="E4" t="n">
-        <v>862</v>
+        <v>936</v>
       </c>
       <c r="F4" t="n">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="G4" t="n">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>84.62</v>
+        <v>83.73</v>
       </c>
       <c r="J4" t="n">
-        <v>7.7</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>2.49</v>
+        <v>2.69</v>
       </c>
       <c r="L4" t="n">
-        <v>5.19</v>
+        <v>5.22</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>

--- a/data/historico_conectividad.xlsx
+++ b/data/historico_conectividad.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2566,6 +2566,135 @@
         <v>5.22</v>
       </c>
       <c r="M49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Telemetría</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5903</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3526</v>
+      </c>
+      <c r="E50" t="n">
+        <v>510</v>
+      </c>
+      <c r="F50" t="n">
+        <v>197</v>
+      </c>
+      <c r="G50" t="n">
+        <v>666</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1004</v>
+      </c>
+      <c r="I50" t="n">
+        <v>59.73</v>
+      </c>
+      <c r="J50" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="L50" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="M50" t="n">
+        <v>17.01</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>GPS (según REGLA)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>5296</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4659</v>
+      </c>
+      <c r="E51" t="n">
+        <v>354</v>
+      </c>
+      <c r="F51" t="n">
+        <v>101</v>
+      </c>
+      <c r="G51" t="n">
+        <v>175</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+      <c r="I51" t="n">
+        <v>87.97</v>
+      </c>
+      <c r="J51" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>GPS (todas con gps_timestamp)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>11192</v>
+      </c>
+      <c r="D52" t="n">
+        <v>9484</v>
+      </c>
+      <c r="E52" t="n">
+        <v>832</v>
+      </c>
+      <c r="F52" t="n">
+        <v>304</v>
+      </c>
+      <c r="G52" t="n">
+        <v>572</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>84.73999999999999</v>
+      </c>
+      <c r="J52" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="M52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2657,7 +2786,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45993</v>
+        <v>45994</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2668,39 +2797,39 @@
         <v>5903</v>
       </c>
       <c r="D2" t="n">
-        <v>3409</v>
+        <v>3526</v>
       </c>
       <c r="E2" t="n">
-        <v>622</v>
+        <v>510</v>
       </c>
       <c r="F2" t="n">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G2" t="n">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="H2" t="n">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="I2" t="n">
-        <v>57.75</v>
+        <v>59.73</v>
       </c>
       <c r="J2" t="n">
-        <v>10.54</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>3.24</v>
+        <v>3.34</v>
       </c>
       <c r="L2" t="n">
-        <v>11.5</v>
+        <v>11.28</v>
       </c>
       <c r="M2" t="n">
-        <v>16.97</v>
+        <v>17.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45993</v>
+        <v>45994</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -2708,42 +2837,42 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5302</v>
+        <v>5296</v>
       </c>
       <c r="D3" t="n">
-        <v>4643</v>
+        <v>4659</v>
       </c>
       <c r="E3" t="n">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G3" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>87.56999999999999</v>
+        <v>87.97</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11</v>
+        <v>6.68</v>
       </c>
       <c r="K3" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="M3" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45993</v>
+        <v>45994</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -2751,34 +2880,34 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11199</v>
+        <v>11192</v>
       </c>
       <c r="D4" t="n">
-        <v>9377</v>
+        <v>9484</v>
       </c>
       <c r="E4" t="n">
-        <v>936</v>
+        <v>832</v>
       </c>
       <c r="F4" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G4" t="n">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>83.73</v>
+        <v>84.73999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>8.359999999999999</v>
+        <v>7.43</v>
       </c>
       <c r="K4" t="n">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="L4" t="n">
-        <v>5.22</v>
+        <v>5.11</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>

--- a/data/historico_conectividad.xlsx
+++ b/data/historico_conectividad.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2695,6 +2695,135 @@
         <v>5.11</v>
       </c>
       <c r="M52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Telemetría</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>5904</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3545</v>
+      </c>
+      <c r="E53" t="n">
+        <v>511</v>
+      </c>
+      <c r="F53" t="n">
+        <v>187</v>
+      </c>
+      <c r="G53" t="n">
+        <v>662</v>
+      </c>
+      <c r="H53" t="n">
+        <v>999</v>
+      </c>
+      <c r="I53" t="n">
+        <v>60.04</v>
+      </c>
+      <c r="J53" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="L53" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="M53" t="n">
+        <v>16.92</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>GPS (según REGLA)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>5300</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4667</v>
+      </c>
+      <c r="E54" t="n">
+        <v>352</v>
+      </c>
+      <c r="F54" t="n">
+        <v>102</v>
+      </c>
+      <c r="G54" t="n">
+        <v>172</v>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+      <c r="I54" t="n">
+        <v>88.06</v>
+      </c>
+      <c r="J54" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>GPS (todas con gps_timestamp)</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>11197</v>
+      </c>
+      <c r="D55" t="n">
+        <v>9495</v>
+      </c>
+      <c r="E55" t="n">
+        <v>835</v>
+      </c>
+      <c r="F55" t="n">
+        <v>299</v>
+      </c>
+      <c r="G55" t="n">
+        <v>568</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="L55" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="M55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,7 +2915,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45994</v>
+        <v>45995</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2794,42 +2923,42 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5903</v>
+        <v>5904</v>
       </c>
       <c r="D2" t="n">
-        <v>3526</v>
+        <v>3545</v>
       </c>
       <c r="E2" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F2" t="n">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="G2" t="n">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="H2" t="n">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="I2" t="n">
-        <v>59.73</v>
+        <v>60.04</v>
       </c>
       <c r="J2" t="n">
-        <v>8.640000000000001</v>
+        <v>8.66</v>
       </c>
       <c r="K2" t="n">
-        <v>3.34</v>
+        <v>3.17</v>
       </c>
       <c r="L2" t="n">
-        <v>11.28</v>
+        <v>11.21</v>
       </c>
       <c r="M2" t="n">
-        <v>17.01</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45994</v>
+        <v>45995</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -2837,34 +2966,34 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5296</v>
+        <v>5300</v>
       </c>
       <c r="D3" t="n">
-        <v>4659</v>
+        <v>4667</v>
       </c>
       <c r="E3" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F3" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G3" t="n">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H3" t="n">
         <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>87.97</v>
+        <v>88.06</v>
       </c>
       <c r="J3" t="n">
-        <v>6.68</v>
+        <v>6.64</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="L3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M3" t="n">
         <v>0.13</v>
@@ -2872,7 +3001,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45994</v>
+        <v>45995</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -2880,34 +3009,34 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11192</v>
+        <v>11197</v>
       </c>
       <c r="D4" t="n">
-        <v>9484</v>
+        <v>9495</v>
       </c>
       <c r="E4" t="n">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="F4" t="n">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G4" t="n">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>84.73999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="J4" t="n">
-        <v>7.43</v>
+        <v>7.46</v>
       </c>
       <c r="K4" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="L4" t="n">
-        <v>5.11</v>
+        <v>5.07</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>

--- a/data/historico_conectividad.xlsx
+++ b/data/historico_conectividad.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2824,6 +2824,135 @@
         <v>5.07</v>
       </c>
       <c r="M55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Telemetría</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>5905</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3557</v>
+      </c>
+      <c r="E56" t="n">
+        <v>493</v>
+      </c>
+      <c r="F56" t="n">
+        <v>188</v>
+      </c>
+      <c r="G56" t="n">
+        <v>663</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1004</v>
+      </c>
+      <c r="I56" t="n">
+        <v>60.24</v>
+      </c>
+      <c r="J56" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="L56" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="M56" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>GPS (según REGLA)</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>5302</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4677</v>
+      </c>
+      <c r="E57" t="n">
+        <v>341</v>
+      </c>
+      <c r="F57" t="n">
+        <v>103</v>
+      </c>
+      <c r="G57" t="n">
+        <v>174</v>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+      <c r="I57" t="n">
+        <v>88.20999999999999</v>
+      </c>
+      <c r="J57" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="L57" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>GPS (todas con gps_timestamp)</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>11200</v>
+      </c>
+      <c r="D58" t="n">
+        <v>9530</v>
+      </c>
+      <c r="E58" t="n">
+        <v>803</v>
+      </c>
+      <c r="F58" t="n">
+        <v>301</v>
+      </c>
+      <c r="G58" t="n">
+        <v>566</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>85.09</v>
+      </c>
+      <c r="J58" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="L58" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="M58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2915,7 +3044,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45995</v>
+        <v>45996</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2923,42 +3052,42 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5904</v>
+        <v>5905</v>
       </c>
       <c r="D2" t="n">
-        <v>3545</v>
+        <v>3557</v>
       </c>
       <c r="E2" t="n">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="F2" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G2" t="n">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H2" t="n">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="I2" t="n">
-        <v>60.04</v>
+        <v>60.24</v>
       </c>
       <c r="J2" t="n">
-        <v>8.66</v>
+        <v>8.35</v>
       </c>
       <c r="K2" t="n">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="L2" t="n">
-        <v>11.21</v>
+        <v>11.23</v>
       </c>
       <c r="M2" t="n">
-        <v>16.92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45995</v>
+        <v>45996</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -2966,34 +3095,34 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5300</v>
+        <v>5302</v>
       </c>
       <c r="D3" t="n">
-        <v>4667</v>
+        <v>4677</v>
       </c>
       <c r="E3" t="n">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="F3" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G3" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H3" t="n">
         <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>88.06</v>
+        <v>88.20999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>6.64</v>
+        <v>6.43</v>
       </c>
       <c r="K3" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25</v>
+        <v>3.28</v>
       </c>
       <c r="M3" t="n">
         <v>0.13</v>
@@ -3001,7 +3130,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45995</v>
+        <v>45996</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -3009,34 +3138,34 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11197</v>
+        <v>11200</v>
       </c>
       <c r="D4" t="n">
-        <v>9495</v>
+        <v>9530</v>
       </c>
       <c r="E4" t="n">
-        <v>835</v>
+        <v>803</v>
       </c>
       <c r="F4" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G4" t="n">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>84.8</v>
+        <v>85.09</v>
       </c>
       <c r="J4" t="n">
-        <v>7.46</v>
+        <v>7.17</v>
       </c>
       <c r="K4" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="L4" t="n">
-        <v>5.07</v>
+        <v>5.05</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>

--- a/data/historico_conectividad.xlsx
+++ b/data/historico_conectividad.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2953,6 +2953,135 @@
         <v>5.05</v>
       </c>
       <c r="M58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Telemetría</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>5905</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3538</v>
+      </c>
+      <c r="E59" t="n">
+        <v>506</v>
+      </c>
+      <c r="F59" t="n">
+        <v>190</v>
+      </c>
+      <c r="G59" t="n">
+        <v>663</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1008</v>
+      </c>
+      <c r="I59" t="n">
+        <v>59.92</v>
+      </c>
+      <c r="J59" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="L59" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="M59" t="n">
+        <v>17.07</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>GPS (según REGLA)</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>5305</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4682</v>
+      </c>
+      <c r="E60" t="n">
+        <v>346</v>
+      </c>
+      <c r="F60" t="n">
+        <v>92</v>
+      </c>
+      <c r="G60" t="n">
+        <v>178</v>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+      <c r="I60" t="n">
+        <v>88.26000000000001</v>
+      </c>
+      <c r="J60" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L60" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>GPS (todas con gps_timestamp)</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>11203</v>
+      </c>
+      <c r="D61" t="n">
+        <v>9539</v>
+      </c>
+      <c r="E61" t="n">
+        <v>798</v>
+      </c>
+      <c r="F61" t="n">
+        <v>289</v>
+      </c>
+      <c r="G61" t="n">
+        <v>577</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>85.15000000000001</v>
+      </c>
+      <c r="J61" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="L61" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="M61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3044,7 +3173,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3055,39 +3184,39 @@
         <v>5905</v>
       </c>
       <c r="D2" t="n">
-        <v>3557</v>
+        <v>3538</v>
       </c>
       <c r="E2" t="n">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="F2" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G2" t="n">
         <v>663</v>
       </c>
       <c r="H2" t="n">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="I2" t="n">
-        <v>60.24</v>
+        <v>59.92</v>
       </c>
       <c r="J2" t="n">
-        <v>8.35</v>
+        <v>8.57</v>
       </c>
       <c r="K2" t="n">
-        <v>3.18</v>
+        <v>3.22</v>
       </c>
       <c r="L2" t="n">
         <v>11.23</v>
       </c>
       <c r="M2" t="n">
-        <v>17</v>
+        <v>17.07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -3095,34 +3224,34 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5302</v>
+        <v>5305</v>
       </c>
       <c r="D3" t="n">
-        <v>4677</v>
+        <v>4682</v>
       </c>
       <c r="E3" t="n">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F3" t="n">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G3" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H3" t="n">
         <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>88.20999999999999</v>
+        <v>88.26000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>6.43</v>
+        <v>6.52</v>
       </c>
       <c r="K3" t="n">
-        <v>1.94</v>
+        <v>1.73</v>
       </c>
       <c r="L3" t="n">
-        <v>3.28</v>
+        <v>3.36</v>
       </c>
       <c r="M3" t="n">
         <v>0.13</v>
@@ -3130,7 +3259,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -3138,34 +3267,34 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11200</v>
+        <v>11203</v>
       </c>
       <c r="D4" t="n">
-        <v>9530</v>
+        <v>9539</v>
       </c>
       <c r="E4" t="n">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="F4" t="n">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="G4" t="n">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.09</v>
+        <v>85.15000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>7.17</v>
+        <v>7.12</v>
       </c>
       <c r="K4" t="n">
-        <v>2.69</v>
+        <v>2.58</v>
       </c>
       <c r="L4" t="n">
-        <v>5.05</v>
+        <v>5.15</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
